--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3221324.946664856</v>
+        <v>3325504.581115928</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>275.1428043778306</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>25.18465006693131</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>62.15464790419375</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>120.4263234899699</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>70.10007593079958</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>243.2391485592467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>81.17114003726772</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>135.016183201892</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>108.1032250584714</v>
       </c>
       <c r="H8" t="n">
-        <v>188.606324149114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,10 +1189,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>106.1914650817266</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,13 +1341,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>8.611758435210829</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>157.0680868942523</v>
+        <v>112.3085276221487</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3243999861106</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.99480013030555</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.93222849083782</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.2579495257424</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>105.3219429113324</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2372,13 +2374,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>104.1233804225868</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>177.2869857517499</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>68.11883945937053</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5813113004308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>137.7610225486958</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>204.4247418692619</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>135.4684761590179</v>
+        <v>95.81917536083746</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>110.2476086063451</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>132.7328787290205</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>85.89092205733184</v>
       </c>
       <c r="H46" t="n">
-        <v>113.3174219124925</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2325.505862906803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1956.543345966392</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1598.277647359641</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1212.489394761397</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>801.5034899717896</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>386.431039816786</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906803</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>692.3528358643467</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>692.3528358643467</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>542.236196452011</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>394.3231028696179</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>394.3231028696179</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>226.6202662443368</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1715.821339846051</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.054724415577</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>874.0013006945865</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609172</v>
+        <v>2684.998771288465</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609172</v>
+        <v>2332.230116018351</v>
       </c>
       <c r="X5" t="n">
-        <v>3079.909711953368</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.6631235951734</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C7" t="n">
-        <v>591.7269406672665</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D7" t="n">
-        <v>441.6103012549307</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>441.6103012549307</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>294.7203537570203</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.093718466961</v>
+        <v>1310.125814008748</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.093718466961</v>
+        <v>1310.125814008748</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y7" t="n">
-        <v>942.3115884254131</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270029</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D8" t="n">
-        <v>1510.867061270029</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="E8" t="n">
-        <v>1125.078808671784</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="F8" t="n">
-        <v>714.0929038821769</v>
+        <v>515.2877924106863</v>
       </c>
       <c r="G8" t="n">
-        <v>299.0204537271733</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>2282.035690395594</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>2282.035690395594</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>2131.919050983258</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>1984.005957400865</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>1837.116009902955</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>1669.413173277674</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S10" t="n">
-        <v>1828.765344951868</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T10" t="n">
-        <v>1606.998729521395</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U10" t="n">
-        <v>1317.895862647038</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V10" t="n">
-        <v>1063.211374441151</v>
+        <v>2981.090876160812</v>
       </c>
       <c r="W10" t="n">
-        <v>773.7942044041906</v>
+        <v>2691.673706123851</v>
       </c>
       <c r="X10" t="n">
-        <v>773.7942044041906</v>
+        <v>2463.684155225834</v>
       </c>
       <c r="Y10" t="n">
-        <v>773.7942044041906</v>
+        <v>2463.684155225834</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021788</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382113</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103044</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979687</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979687</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.453616008648</v>
+        <v>2083.619588293478</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.378389352846</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.693901146959</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.276731109999</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X13" t="n">
-        <v>1044.287180211981</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y13" t="n">
-        <v>823.4946010684511</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5257,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2380.301669307225</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5543,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.8230468926974</v>
+        <v>1098.306025422648</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>929.3698424947406</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5774,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5626541092265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5974,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084668</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300427</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926979</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>4435.461999481586</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4435.461999481586</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380895</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101826</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978468</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978468</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7903292978468</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6142,7 +6144,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6190,7 +6192,7 @@
         <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683292</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969299</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969299</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6402,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6424,10 +6426,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>3511.325458604699</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>4138.923422159306</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>618.4214495336229</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.5558870561822</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.40365196493</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.986481927969</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9969310299521</v>
+        <v>964.4894946679487</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.2043518864219</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468473</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3012.408157764291</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C37" t="n">
-        <v>3012.408157764291</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D37" t="n">
-        <v>3012.408157764291</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594531</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192474</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,28 +7435,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7475,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3052.758924204021</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C43" t="n">
-        <v>3052.758924204021</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.397703389531</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807138</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309227</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.617138214751</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177791</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X43" t="n">
-        <v>3455.199968177791</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y43" t="n">
-        <v>3234.407389034261</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7670,28 +7672,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3233.200736907822</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="C46" t="n">
-        <v>3064.264553979915</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="D46" t="n">
-        <v>2914.14791456758</v>
+        <v>2795.133721002721</v>
       </c>
       <c r="E46" t="n">
-        <v>2766.234820985187</v>
+        <v>2795.133721002721</v>
       </c>
       <c r="F46" t="n">
-        <v>2619.344873487276</v>
+        <v>2648.243773504811</v>
       </c>
       <c r="G46" t="n">
-        <v>2452.148774202156</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.25592267304</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636079</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738062</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y46" t="n">
-        <v>3414.849201738062</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
   </sheetData>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60.33736343303596</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>19.50758019582665</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.380446579816109</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.8997516910995</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.3575234924699657</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>146.8157004124956</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.40075786968204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>41.29766760034488</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>78.31512318719864</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.2652634529488</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>47.71290145456607</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>10.96548648755129</v>
+        <v>50.61478728573171</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>38.36786441186723</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>79.63321623493701</v>
       </c>
       <c r="H46" t="n">
-        <v>26.97729093373134</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698273.4890367516</v>
+        <v>698273.4890367517</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.939721005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
@@ -26347,13 +26349,13 @@
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,13 +26432,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293121</v>
+        <v>-789924.9923293125</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982804</v>
+        <v>538819.7533982805</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982805</v>
+        <v>538819.7533982802</v>
       </c>
       <c r="E6" t="n">
-        <v>286900.0839429123</v>
+        <v>286900.0839429126</v>
       </c>
       <c r="F6" t="n">
         <v>612312.5457502676</v>
       </c>
       <c r="G6" t="n">
+        <v>612312.5457502676</v>
+      </c>
+      <c r="H6" t="n">
+        <v>612312.5457502676</v>
+      </c>
+      <c r="I6" t="n">
         <v>612312.545750268</v>
       </c>
-      <c r="H6" t="n">
-        <v>612312.5457502678</v>
-      </c>
-      <c r="I6" t="n">
-        <v>612312.5457502679</v>
-      </c>
       <c r="J6" t="n">
-        <v>394781.3433529902</v>
+        <v>394781.3433529903</v>
       </c>
       <c r="K6" t="n">
-        <v>612312.5457502679</v>
+        <v>612312.5457502682</v>
       </c>
       <c r="L6" t="n">
         <v>612312.5457502678</v>
       </c>
       <c r="M6" t="n">
-        <v>527257.5178147559</v>
+        <v>527257.5178147561</v>
       </c>
       <c r="N6" t="n">
-        <v>612312.5457502676</v>
+        <v>612312.5457502679</v>
       </c>
       <c r="O6" t="n">
-        <v>612312.5457502677</v>
+        <v>612312.5457502679</v>
       </c>
       <c r="P6" t="n">
-        <v>612312.5457502677</v>
+        <v>612312.545750268</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.144835422507596e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26792,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,31 +26807,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>19.46496000948986</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>344.5464506115378</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.60036701012703</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>69.34270184147198</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>257.6521825393353</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>126.4919521192223</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85466822176051</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.121460121936</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>302.818500594982</v>
       </c>
       <c r="H8" t="n">
-        <v>106.0014402382064</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>38.56354983259418</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>181.1572668962311</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30517,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.641908991282999e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857152</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576914</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868571</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32101,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32549,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>347.4623967873085</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32575,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639522</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -32813,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,31 +33028,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547051</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>324.9782573297431</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>202.2352659288679</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33499,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>606.5820696732812</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,34 +34210,34 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>183.7183104822598</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786837</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34447,34 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>340.4395077511221</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023819</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>208.9080170074343</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962196</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748309</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>187.1368183553841</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>68.26085851453769</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>463.9858252288368</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>45.87687150790079</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>197.8432633066776</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325504.581115928</v>
+        <v>3321491.971101936</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>373.3886011363418</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25.18465006693131</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>62.15464790419375</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346978</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>120.6088074159629</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>70.10007593079958</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>135.016183201892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>108.1032250584714</v>
+        <v>147.5395905665094</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>106.1914650817266</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>112.3085276221487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>160.545733522397</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.3243999861106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D19" t="n">
-        <v>148.2579495257424</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>105.3219429113324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.2869857517499</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.3722917337067</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.11883945937053</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>204.4247418692619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>95.81917536083746</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>63.16281301712667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,10 +3796,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>132.7328787290205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>85.89092205733184</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2362.804761797675</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.3528358643467</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>692.3528358643467</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>542.236196452011</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>394.3231028696179</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>394.3231028696179</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>226.6202662443368</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="X4" t="n">
-        <v>874.0013006945865</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>874.0013006945865</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>599.3250994197333</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>188.3391946301257</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2684.998771288465</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.230116018351</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.764357757271</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.125814008748</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.125814008748</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002938</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002938</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E8" t="n">
-        <v>926.2736972002938</v>
+        <v>626.5279106829116</v>
       </c>
       <c r="F8" t="n">
-        <v>515.2877924106863</v>
+        <v>215.5420058933041</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2282.035690395594</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>2282.035690395594</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>2131.919050983258</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>1984.005957400865</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>1837.116009902955</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>1669.413173277674</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>2981.090876160812</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>2691.673706123851</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>2463.684155225834</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>2463.684155225834</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5032,55 +5032,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.619588293478</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.544361637675</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.859873431788</v>
+        <v>1526.218446256326</v>
       </c>
       <c r="W13" t="n">
-        <v>1250.442703394828</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.45315249681</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6605733532803</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.306025422648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.3698424947406</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>228.5361496476756</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.325458604699</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>768.5380889459586</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>618.4214495336229</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1481.896215602927</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.479045565966</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>964.4894946679487</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892237</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.4644740681601</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.1129388983999</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3114.186543342963</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2945.250360415057</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2795.133721002721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2795.133721002721</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2648.243773504811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3295.835008173203</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>91.591909801431</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.50758019582665</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3575234924699657</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>146.8157004124956</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.29766760034488</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.04875628922451</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.31512318719864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>47.71290145456607</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>50.61478728573171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>119.4047645948075</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>79.63321623493701</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698273.4890367517</v>
+        <v>698273.4890367516</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
+        <v>12996.86414683039</v>
+      </c>
+      <c r="O4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12996.86414683046</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293125</v>
+        <v>-789924.9923293123</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982805</v>
+        <v>538819.7533982808</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982802</v>
+        <v>538819.7533982806</v>
       </c>
       <c r="E6" t="n">
-        <v>286900.0839429126</v>
+        <v>286552.7046885554</v>
       </c>
       <c r="F6" t="n">
-        <v>612312.5457502676</v>
+        <v>611965.1664959108</v>
       </c>
       <c r="G6" t="n">
-        <v>612312.5457502676</v>
+        <v>611965.1664959108</v>
       </c>
       <c r="H6" t="n">
-        <v>612312.5457502676</v>
+        <v>611965.1664959111</v>
       </c>
       <c r="I6" t="n">
-        <v>612312.545750268</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="J6" t="n">
-        <v>394781.3433529903</v>
+        <v>394433.9640986332</v>
       </c>
       <c r="K6" t="n">
-        <v>612312.5457502682</v>
+        <v>611965.1664959107</v>
       </c>
       <c r="L6" t="n">
-        <v>612312.5457502678</v>
+        <v>611965.1664959104</v>
       </c>
       <c r="M6" t="n">
-        <v>527257.5178147561</v>
+        <v>526910.1385603987</v>
       </c>
       <c r="N6" t="n">
-        <v>612312.5457502679</v>
+        <v>611965.1664959106</v>
       </c>
       <c r="O6" t="n">
-        <v>612312.5457502679</v>
+        <v>611965.166495911</v>
       </c>
       <c r="P6" t="n">
-        <v>612312.545750268</v>
+        <v>611965.1664959107</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.144835422507596e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.345240527138799</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.5464506115378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.60036701012703</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.50340795433939</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.3129182374906</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>257.6521825393353</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>117.121460121936</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>302.818500594982</v>
+        <v>263.382135086944</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>38.56354983259418</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.641908991282999e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>347.4623967873085</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33189,7 +33189,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175677</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236508</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297431</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>383.9182138639285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043702</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>183.7183104822598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,28 +34444,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0572943778172</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>208.9080170074343</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553841</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>45.87687150790079</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3321491.971101936</v>
+        <v>3323252.501404721</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373.3886011363418</v>
+        <v>373.3886011363449</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346978</v>
+        <v>150.2062474346984</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>120.6088074159629</v>
+        <v>120.6088074159642</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991754</v>
+        <v>71.67037196991797</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>147.5395905665094</v>
+        <v>256.7273523546867</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>128.1870493703718</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>160.545733522397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>179.2499669408066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="44">
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4321,61 +4321,61 @@
         <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.31515313627</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520492</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794328</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,55 +4464,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1091.613680441808</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>922.6774975139007</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>772.5608581015649</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>624.6477645191718</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>477.7578170212614</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959804</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279957</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764921</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760413</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.07675150232</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672848</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.34156756514</v>
+        <v>1712.341567565141</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624728</v>
+        <v>1343.379050624729</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179776</v>
+        <v>985.113352017979</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197333</v>
+        <v>599.3250994197347</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301257</v>
+        <v>188.3391946301271</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866153</v>
+        <v>2862.546497866154</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605073</v>
+        <v>2489.080739605075</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2098.941407629263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738584</v>
+        <v>752.7622949738588</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459515</v>
+        <v>583.826112045952</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336157</v>
+        <v>433.7094726336162</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512226</v>
+        <v>285.7963790512231</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533123</v>
+        <v>138.9064315533127</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4743,34 +4743,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882607</v>
       </c>
       <c r="W7" t="n">
         <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947629</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040981</v>
+        <v>934.4107598040986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281156</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="E8" t="n">
-        <v>626.5279106829116</v>
+        <v>736.818579155818</v>
       </c>
       <c r="F8" t="n">
-        <v>215.5420058933041</v>
+        <v>325.8326743662105</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5190,10 +5190,10 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2250.435511781783</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2030.834046804724</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1741.758820148922</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256326</v>
+        <v>1487.074331943035</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1197.657161906075</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>969.6676110080573</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311171</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6208,67 +6208,67 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6375,13 +6375,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6454,7 +6454,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6721,19 +6721,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6961,28 +6961,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7089,10 +7089,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7198,7 +7198,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.255978819893812e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-1.262924751342039e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>52.83923663127277</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>91.591909801431</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818145</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818151</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818166</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92183.89891818163</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.8641468304</v>
@@ -26432,7 +26432,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,19 +26441,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789924.9923293123</v>
+        <v>-789924.9923293128</v>
       </c>
       <c r="C6" t="n">
-        <v>538819.7533982808</v>
+        <v>538819.7533982809</v>
       </c>
       <c r="D6" t="n">
-        <v>538819.7533982806</v>
+        <v>538819.7533982809</v>
       </c>
       <c r="E6" t="n">
-        <v>286552.7046885554</v>
+        <v>286865.3460174768</v>
       </c>
       <c r="F6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.8078248323</v>
       </c>
       <c r="G6" t="n">
-        <v>611965.1664959108</v>
+        <v>612277.8078248324</v>
       </c>
       <c r="H6" t="n">
-        <v>611965.1664959111</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="I6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.8078248317</v>
       </c>
       <c r="J6" t="n">
-        <v>394433.9640986332</v>
+        <v>394746.6054275542</v>
       </c>
       <c r="K6" t="n">
-        <v>611965.1664959107</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="L6" t="n">
-        <v>611965.1664959104</v>
+        <v>612277.8078248319</v>
       </c>
       <c r="M6" t="n">
-        <v>526910.1385603987</v>
+        <v>527222.7798893203</v>
       </c>
       <c r="N6" t="n">
-        <v>611965.1664959106</v>
+        <v>612277.807824832</v>
       </c>
       <c r="O6" t="n">
-        <v>611965.166495911</v>
+        <v>612277.8078248324</v>
       </c>
       <c r="P6" t="n">
-        <v>611965.1664959107</v>
+        <v>612277.8078248322</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022933</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.345240527138799</v>
+        <v>9.345240527135672</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433939</v>
+        <v>75.50340795433874</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>290.3129182374906</v>
+        <v>290.3129182374893</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911068</v>
+        <v>94.35543628911026</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.382135086944</v>
+        <v>154.1943732987667</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32469,10 +32469,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -33189,7 +33189,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175677</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236508</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36837,7 +36837,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
         <v>735.300110790295</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
